--- a/app/src/main/assets/Information Assurance and Security (Cybersecurity Fundamentals).xlsx
+++ b/app/src/main/assets/Information Assurance and Security (Cybersecurity Fundamentals).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89620C1B-7D9E-4013-81C1-CAF3C44DEB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D0653C-096B-4F4C-BFAA-13DD467F0AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Multiple Choice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="245">
   <si>
     <t xml:space="preserve">It is a practice of protecting systems, networks, and programs from digital attacks. </t>
   </si>
@@ -759,6 +759,9 @@
   </si>
   <si>
     <t>Incident Countermeasure</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -794,12 +797,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,7 +1098,7 @@
     <col min="6" max="6" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -1118,8 +1120,11 @@
       <c r="G1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -1141,8 +1146,11 @@
       <c r="G2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -1164,8 +1172,11 @@
       <c r="G3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -1187,8 +1198,11 @@
       <c r="G4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>236</v>
       </c>
@@ -1210,8 +1224,11 @@
       <c r="G5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -1233,8 +1250,11 @@
       <c r="G6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>236</v>
       </c>
@@ -1256,8 +1276,11 @@
       <c r="G7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>236</v>
       </c>
@@ -1279,8 +1302,11 @@
       <c r="G8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -1302,8 +1328,11 @@
       <c r="G9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -1325,8 +1354,11 @@
       <c r="G10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -1348,8 +1380,11 @@
       <c r="G11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>237</v>
       </c>
@@ -1371,8 +1406,11 @@
       <c r="G12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -1394,8 +1432,11 @@
       <c r="G13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -1417,8 +1458,11 @@
       <c r="G14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>238</v>
       </c>
@@ -1440,8 +1484,11 @@
       <c r="G15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>238</v>
       </c>
@@ -1463,8 +1510,11 @@
       <c r="G16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>238</v>
       </c>
@@ -1486,8 +1536,11 @@
       <c r="G17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>239</v>
       </c>
@@ -1509,8 +1562,11 @@
       <c r="G18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>239</v>
       </c>
@@ -1532,8 +1588,11 @@
       <c r="G19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>239</v>
       </c>
@@ -1555,8 +1614,11 @@
       <c r="G20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -1578,8 +1640,11 @@
       <c r="G21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -1601,8 +1666,11 @@
       <c r="G22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>239</v>
       </c>
@@ -1624,8 +1692,11 @@
       <c r="G23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -1647,8 +1718,11 @@
       <c r="G24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -1670,8 +1744,11 @@
       <c r="G25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>240</v>
       </c>
@@ -1693,8 +1770,11 @@
       <c r="G26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -1716,8 +1796,11 @@
       <c r="G27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>240</v>
       </c>
@@ -1739,8 +1822,11 @@
       <c r="G28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>240</v>
       </c>
@@ -1762,8 +1848,11 @@
       <c r="G29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>240</v>
       </c>
@@ -1785,8 +1874,11 @@
       <c r="G30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>240</v>
       </c>
@@ -1808,8 +1900,11 @@
       <c r="G31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>240</v>
       </c>
@@ -1831,8 +1926,11 @@
       <c r="G32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>241</v>
       </c>
@@ -1854,8 +1952,11 @@
       <c r="G33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>241</v>
       </c>
@@ -1877,8 +1978,11 @@
       <c r="G34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -1900,8 +2004,11 @@
       <c r="G35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -1923,8 +2030,11 @@
       <c r="G36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>243</v>
       </c>
@@ -1945,6 +2055,9 @@
       </c>
       <c r="G37" t="s">
         <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1954,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDADD61C-844D-4D26-A4E3-33BE6506078D}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1967,7 +2080,7 @@
     <col min="3" max="3" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -1977,8 +2090,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -1988,8 +2104,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -1999,8 +2118,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -2010,8 +2132,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>236</v>
       </c>
@@ -2021,8 +2146,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -2032,8 +2160,11 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>236</v>
       </c>
@@ -2043,8 +2174,11 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>236</v>
       </c>
@@ -2054,8 +2188,11 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -2065,8 +2202,11 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>236</v>
       </c>
@@ -2076,8 +2216,11 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -2087,8 +2230,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>236</v>
       </c>
@@ -2098,8 +2244,11 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -2109,8 +2258,11 @@
       <c r="C13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>237</v>
       </c>
@@ -2120,8 +2272,11 @@
       <c r="C14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>237</v>
       </c>
@@ -2131,8 +2286,11 @@
       <c r="C15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>237</v>
       </c>
@@ -2142,8 +2300,11 @@
       <c r="C16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>237</v>
       </c>
@@ -2153,8 +2314,11 @@
       <c r="C17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>238</v>
       </c>
@@ -2164,8 +2328,11 @@
       <c r="C18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -2175,8 +2342,11 @@
       <c r="C19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>238</v>
       </c>
@@ -2186,8 +2356,11 @@
       <c r="C20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -2197,8 +2370,11 @@
       <c r="C21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -2208,8 +2384,11 @@
       <c r="C22" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>239</v>
       </c>
@@ -2219,8 +2398,11 @@
       <c r="C23" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -2230,8 +2412,11 @@
       <c r="C24" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>239</v>
       </c>
@@ -2241,8 +2426,11 @@
       <c r="C25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>239</v>
       </c>
@@ -2252,8 +2440,11 @@
       <c r="C26" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -2263,8 +2454,11 @@
       <c r="C27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>240</v>
       </c>
@@ -2274,8 +2468,11 @@
       <c r="C28" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>240</v>
       </c>
@@ -2285,8 +2482,11 @@
       <c r="C29" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>240</v>
       </c>
@@ -2296,8 +2496,11 @@
       <c r="C30" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>240</v>
       </c>
@@ -2307,8 +2510,11 @@
       <c r="C31" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>240</v>
       </c>
@@ -2318,8 +2524,11 @@
       <c r="C32" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>240</v>
       </c>
@@ -2329,8 +2538,11 @@
       <c r="C33" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>240</v>
       </c>
@@ -2340,8 +2552,11 @@
       <c r="C34" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>240</v>
       </c>
@@ -2351,8 +2566,11 @@
       <c r="C35" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>241</v>
       </c>
@@ -2362,8 +2580,11 @@
       <c r="C36" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>241</v>
       </c>
@@ -2373,8 +2594,11 @@
       <c r="C37" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>241</v>
       </c>
@@ -2384,8 +2608,11 @@
       <c r="C38" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>242</v>
       </c>
@@ -2395,8 +2622,11 @@
       <c r="C39" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>242</v>
       </c>
@@ -2406,8 +2636,11 @@
       <c r="C40" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -2417,8 +2650,11 @@
       <c r="C41" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>243</v>
       </c>
@@ -2428,8 +2664,11 @@
       <c r="C42" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>243</v>
       </c>
@@ -2439,8 +2678,11 @@
       <c r="C43" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>243</v>
       </c>
@@ -2449,6 +2691,9 @@
       </c>
       <c r="C44" t="s">
         <v>225</v>
+      </c>
+      <c r="D44" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2458,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E609F3-CAB6-4428-9519-43D9C4BEBEFC}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2715,7 @@
     <col min="2" max="2" width="157.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -2480,8 +2725,11 @@
       <c r="C1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -2491,8 +2739,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>236</v>
       </c>
@@ -2502,8 +2753,11 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -2513,8 +2767,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>236</v>
       </c>
@@ -2524,8 +2781,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -2535,8 +2795,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>236</v>
       </c>
@@ -2546,8 +2809,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>236</v>
       </c>
@@ -2557,8 +2823,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -2568,8 +2837,11 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -2579,8 +2851,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -2590,8 +2865,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>237</v>
       </c>
@@ -2601,8 +2879,11 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>238</v>
       </c>
@@ -2612,8 +2893,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -2623,8 +2907,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>238</v>
       </c>
@@ -2634,8 +2921,11 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -2645,8 +2935,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>239</v>
       </c>
@@ -2656,8 +2949,11 @@
       <c r="C17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>239</v>
       </c>
@@ -2667,8 +2963,11 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>239</v>
       </c>
@@ -2678,8 +2977,11 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>240</v>
       </c>
@@ -2689,8 +2991,11 @@
       <c r="C20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -2700,93 +3005,120 @@
       <c r="C21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>240</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>153</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>154</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>155</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>196</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>216</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>217</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>226</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>227</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
